--- a/spec/models/ASW/Eng/InjSys/InjUn/Rail/Rail_SetPoint/interfaceRail_SetPoint.xlsx
+++ b/spec/models/ASW/Eng/InjSys/InjUn/Rail/Rail_SetPoint/interfaceRail_SetPoint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dulinggang\T3NSE\trunk\spec\model\swCore\ASW\Eng\InjSys\InjUn\Rail\Rail_SetPoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0C73BE-B85F-42A9-BCE8-81DC28434C6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0385ADB9-C5FB-4F3F-82D3-482B4DEE2D19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1065" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1065" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="213">
   <si>
     <t>Name</t>
   </si>
@@ -871,12 +871,23 @@
     <t>[200 400 600 700 800 900 1000 1200 1400 1600 1800 2000]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>CoEng_st</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine coordinator state</t>
+  </si>
+  <si>
+    <t>Enum:EngState_conv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +1004,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1149,7 +1173,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,6 +1326,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1782,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2174,7 +2207,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="23" t="s">
         <v>129</v>
       </c>
@@ -2195,7 +2228,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="23" t="s">
         <v>130</v>
       </c>
@@ -2216,9 +2249,29 @@
         <v>128</v>
       </c>
     </row>
+    <row r="19" spans="1:9" ht="16.5">
+      <c r="A19" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2849,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
